--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3113045.779344983</v>
+        <v>3111158.197828581</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>84.6545924993103</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>84.16790000022172</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>43.82642114172559</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>32.56842626327199</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>129.0246247964033</v>
+        <v>42.93165166918612</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>8.265689087602643</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>231.4408706859773</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>33.3514698018586</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>271.7818641996878</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>77.8682875383153</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>101.004168848341</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>190.7955476484025</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>118.2422920270588</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>21.96549637701692</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.4593910168949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>164.3675597136121</v>
+        <v>97.12772045570698</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>119.3786445880209</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750023</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,22 +2950,22 @@
         <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>21.84773706512108</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>63.73311595762704</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>54.76109577523579</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3013,7 +3013,7 @@
         <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235378</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>160.3215760242197</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>153.3760752750163</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>139.4526712136072</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>139.4526712136072</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>428.8224802162921</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>428.8224802162921</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>428.8224802162921</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>428.8224802162921</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1253.251950079336</v>
+        <v>847.8148076117927</v>
       </c>
       <c r="C5" t="n">
-        <v>1253.251950079336</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>894.9862514725855</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>509.1979988743413</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>98.21209408473374</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.851790143458</v>
+        <v>1234.414647675914</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,7 +4650,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551153</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1193.238943380987</v>
+        <v>1216.807289433106</v>
       </c>
       <c r="C8" t="n">
-        <v>1193.238943380987</v>
+        <v>847.8447724926946</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.238943380987</v>
+        <v>847.8447724926946</v>
       </c>
       <c r="E8" t="n">
-        <v>807.4506907827431</v>
+        <v>462.0565198944503</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>455.1110191452469</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>441.1876150838378</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626913</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.378275356799</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>1583.378275356799</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>1193.238943380987</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U13" t="n">
-        <v>800.6837097077203</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V13" t="n">
-        <v>545.9992215018334</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018334</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038161</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954966</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,25 +5276,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>175.8719273575741</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028584</v>
@@ -5437,10 +5437,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.063975947119</v>
@@ -5449,7 +5449,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247857</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>862.1113288466635</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>607.4268406407766</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W16" t="n">
-        <v>318.0096706038159</v>
+        <v>585.5099430858312</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>357.5203921878139</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>357.5203921878139</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,22 +5525,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1306.193495155475</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1017.064856369034</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557903</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1476.728900480108</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1476.728900480108</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>1187.600261693666</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>932.915773487779</v>
       </c>
       <c r="W22" t="n">
-        <v>720.4504516500527</v>
+        <v>643.4986034508183</v>
       </c>
       <c r="X22" t="n">
-        <v>492.4609007520354</v>
+        <v>415.509052552801</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -5993,7 +5993,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6063,19 +6063,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>857.5427825698952</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
         <v>1661.954360834046</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1332.888432463345</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U25" t="n">
-        <v>1043.759793676903</v>
+        <v>800.6837097077203</v>
       </c>
       <c r="V25" t="n">
-        <v>789.0753054710163</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W25" t="n">
-        <v>499.6581354340558</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340558</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905257</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028604</v>
+        <v>217.8015809431353</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028604</v>
+        <v>217.8015809431353</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028604</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028587</v>
@@ -6385,19 +6385,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471188</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387593</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>869.308300601151</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952641</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583034</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028604</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028604</v>
+        <v>399.450045773375</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6543,16 +6543,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
         <v>2331.418122136705</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.532429954218</v>
+        <v>439.532429954217</v>
       </c>
       <c r="C31" t="n">
-        <v>439.532429954218</v>
+        <v>326.3571123076808</v>
       </c>
       <c r="D31" t="n">
-        <v>439.532429954218</v>
+        <v>304.2886910297805</v>
       </c>
       <c r="E31" t="n">
-        <v>347.3802016531956</v>
+        <v>304.2886910297805</v>
       </c>
       <c r="F31" t="n">
-        <v>256.2511194366557</v>
+        <v>304.2886910297805</v>
       </c>
       <c r="G31" t="n">
         <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864669</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933496</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667502</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6637,10 +6637,10 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
         <v>1880.81182489927</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818931</v>
+        <v>902.6804289818921</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652464</v>
+        <v>730.4517433652454</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030869</v>
+        <v>565.420029503086</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6677,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229678</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504519</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7011,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N36" t="n">
         <v>2051.878056918008</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823803</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.28419175141</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7248,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
@@ -7269,7 +7269,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,13 +7409,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982972</v>
@@ -7570,49 +7570,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,16 +7734,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>76.43196988338491</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>5.100663089359756</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>433.7515527292969</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714835</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,22 +9486,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>158.8724419039327</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,16 +9717,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>230.7151863772033</v>
       </c>
       <c r="M24" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,19 +10191,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>52.49733361305235</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>392.1113620226433</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720754</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11382,19 +11382,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>93.88676507992579</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>133.8953512967692</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>14.45548819888955</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>89.37853356031253</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>185.2331835502364</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>30.75201340998672</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>100.342361325036</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>175.9553136065863</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.125262335199852</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.1800013447772</v>
+        <v>124.4198406026823</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>29.23682843019141</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338699</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>71.56447932453428</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
-        <v>47.55719587719352</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>55.21598883571499</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110565</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>744790.5744110562</v>
+        <v>744790.5744110565</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380331</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="H2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="G2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.9485672197</v>
-      </c>
       <c r="I2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="J2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="K2" t="n">
-        <v>671256.5266196956</v>
+        <v>671256.5266196952</v>
       </c>
       <c r="L2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="M2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="N2" t="n">
+        <v>677359.4601380338</v>
+      </c>
+      <c r="O2" t="n">
         <v>677359.4601380337</v>
       </c>
-      <c r="O2" t="n">
-        <v>677359.460138034</v>
-      </c>
       <c r="P2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380338</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
         <v>10342.90680086693</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106723</v>
+        <v>40339.23010106721</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44593.39482819117</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44593.39482819113</v>
+      </c>
+      <c r="O4" t="n">
         <v>44593.3948281912</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44593.3948281912</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.39482819118</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819122</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26491,7 +26491,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,10 +26500,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-161100.364926445</v>
+        <v>-161100.3649264448</v>
       </c>
       <c r="C6" t="n">
         <v>428867.5142880996</v>
       </c>
       <c r="D6" t="n">
-        <v>428867.5142880992</v>
+        <v>428867.5142880996</v>
       </c>
       <c r="E6" t="n">
-        <v>5875.97855473595</v>
+        <v>5778.519428763539</v>
       </c>
       <c r="F6" t="n">
-        <v>531036.0150316322</v>
+        <v>530938.5559056601</v>
       </c>
       <c r="G6" t="n">
-        <v>531036.0150316319</v>
+        <v>530938.5559056603</v>
       </c>
       <c r="H6" t="n">
-        <v>531036.0150316324</v>
+        <v>530938.55590566</v>
       </c>
       <c r="I6" t="n">
-        <v>531036.0150316318</v>
+        <v>530938.55590566</v>
       </c>
       <c r="J6" t="n">
-        <v>354612.7958390394</v>
+        <v>354515.336713067</v>
       </c>
       <c r="K6" t="n">
-        <v>490126.4826855599</v>
+        <v>490107.9889476253</v>
       </c>
       <c r="L6" t="n">
-        <v>524708.0526889501</v>
+        <v>524708.0526889502</v>
       </c>
       <c r="M6" t="n">
         <v>400249.9442559802</v>
       </c>
       <c r="N6" t="n">
+        <v>535050.9594898173</v>
+      </c>
+      <c r="O6" t="n">
         <v>535050.9594898171</v>
       </c>
-      <c r="O6" t="n">
-        <v>535050.9594898173</v>
-      </c>
       <c r="P6" t="n">
-        <v>490888.3541869714</v>
+        <v>490888.3541869717</v>
       </c>
     </row>
   </sheetData>
@@ -26701,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26710,16 +26710,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964069</v>
@@ -26744,10 +26744,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26765,7 +26765,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26823,7 +26823,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
         <v>12.92863350108366</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855695</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>67.27672374555095</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>39.5380257591774</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>140.8672054578626</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>52.02592219651751</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>369.9577488790694</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>353.6695123927816</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>157.4983735401877</v>
+        <v>243.5913466674049</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>398.6103566541088</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>92.48190207837982</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-2.735996994178907e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>409.6265432813979</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>212.1940780208845</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,22 +35969,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>766.9461261273099</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>492.0670153019457</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36361,7 +36361,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221117</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>479.9728913332276</v>
       </c>
       <c r="M24" t="n">
-        <v>326.2624260966948</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178377</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>590.4888118683114</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187476</v>
@@ -36911,19 +36911,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315247</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>682.9598737318697</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37169,7 +37169,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>725.3059354206563</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415095</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>404.3111421303921</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
